--- a/PBE/design1.xlsx
+++ b/PBE/design1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sombras\pdfs\RS117\character sheets\design files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sombras\pdfs\RS117\RS117 Core\RS117\PBE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
     <t>Weapons</t>
   </si>
   <si>
-    <t>Armor</t>
-  </si>
-  <si>
     <t>Saving Throws</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Shield:_______________</t>
+  </si>
+  <si>
+    <t>Armor &amp; DR</t>
   </si>
 </sst>
 </file>
@@ -255,6 +255,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -266,15 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9034,8 +9034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9050,35 +9050,35 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
+      <c r="A3" s="15"/>
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -9087,112 +9087,112 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="C7" s="13"/>
+    <row r="9" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="C9" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>4</v>
+    <row r="10" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="C9" s="13"/>
+    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="F11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>5</v>
+    <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="C11" s="13"/>
-      <c r="F11" s="18" t="s">
-        <v>10</v>
+    <row r="13" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="13"/>
+      <c r="C15" s="16"/>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="14" t="s">
-        <v>17</v>
+      <c r="C16" s="17" t="s">
+        <v>16</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="F16" s="19" t="s">
-        <v>16</v>
+      <c r="D16" s="18"/>
+      <c r="F16" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="19"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A37" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A37" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
@@ -9204,6 +9204,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A10:A11"/>
@@ -9211,18 +9221,8 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
